--- a/po forecast comparison/B08KGVH7YC_sales_po_comparison.xlsx
+++ b/po forecast comparison/B08KGVH7YC_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,1152 +453,1919 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44920</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>44914</v>
       </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44921</v>
+        <v>44920</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44928</v>
+        <v>44927</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44935</v>
+        <v>44934</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44942</v>
+        <v>44941</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44949</v>
+        <v>44948</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44956</v>
+        <v>44955</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44963</v>
+        <v>44955</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44977</v>
+        <v>44962</v>
       </c>
       <c r="B10" t="n">
-        <v>157</v>
-      </c>
-      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44984</v>
+        <v>44969</v>
       </c>
       <c r="B11" t="n">
-        <v>144</v>
-      </c>
-      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44991</v>
+        <v>44983</v>
       </c>
       <c r="B12" t="n">
-        <v>81</v>
-      </c>
-      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44998</v>
+        <v>44983</v>
       </c>
       <c r="B13" t="n">
-        <v>42</v>
-      </c>
-      <c r="C13" t="n">
+        <v>157</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45005</v>
+        <v>44990</v>
       </c>
       <c r="B14" t="n">
-        <v>136</v>
-      </c>
-      <c r="C14" t="n">
+        <v>144</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45012</v>
+        <v>44997</v>
       </c>
       <c r="B15" t="n">
-        <v>139</v>
-      </c>
-      <c r="C15" t="n">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45019</v>
+        <v>45004</v>
       </c>
       <c r="B16" t="n">
-        <v>114</v>
-      </c>
-      <c r="C16" t="n">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45026</v>
+        <v>45011</v>
       </c>
       <c r="B17" t="n">
-        <v>102</v>
-      </c>
-      <c r="C17" t="n">
+        <v>136</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45033</v>
+        <v>45018</v>
       </c>
       <c r="B18" t="n">
-        <v>148</v>
-      </c>
-      <c r="C18" t="n">
+        <v>139</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45040</v>
+        <v>45025</v>
       </c>
       <c r="B19" t="n">
-        <v>132</v>
-      </c>
-      <c r="C19" t="n">
+        <v>114</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45047</v>
+        <v>45032</v>
       </c>
       <c r="B20" t="n">
-        <v>61</v>
-      </c>
-      <c r="C20" t="n">
+        <v>102</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45054</v>
+        <v>45039</v>
       </c>
       <c r="B21" t="n">
-        <v>76</v>
-      </c>
-      <c r="C21" t="n">
+        <v>148</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45061</v>
+        <v>45046</v>
       </c>
       <c r="B22" t="n">
-        <v>81</v>
-      </c>
-      <c r="C22" t="n">
+        <v>132</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45068</v>
+        <v>45053</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
-      </c>
-      <c r="C23" t="n">
+        <v>61</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45075</v>
+        <v>45060</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
-      </c>
-      <c r="C24" t="n">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45082</v>
+        <v>45067</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
-      </c>
-      <c r="C25" t="n">
+        <v>81</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45089</v>
+        <v>45074</v>
       </c>
       <c r="B26" t="n">
-        <v>22</v>
-      </c>
-      <c r="C26" t="n">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45096</v>
+        <v>45081</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45103</v>
+        <v>45088</v>
       </c>
       <c r="B28" t="n">
-        <v>79</v>
-      </c>
-      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45110</v>
+        <v>45095</v>
       </c>
       <c r="B29" t="n">
-        <v>227</v>
-      </c>
-      <c r="C29" t="n">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45117</v>
+        <v>45102</v>
       </c>
       <c r="B30" t="n">
-        <v>159</v>
-      </c>
-      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45124</v>
+        <v>45109</v>
       </c>
       <c r="B31" t="n">
-        <v>175</v>
-      </c>
-      <c r="C31" t="n">
+        <v>79</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45131</v>
+        <v>45116</v>
       </c>
       <c r="B32" t="n">
-        <v>148</v>
-      </c>
-      <c r="C32" t="n">
+        <v>227</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45138</v>
+        <v>45123</v>
       </c>
       <c r="B33" t="n">
-        <v>153</v>
-      </c>
-      <c r="C33" t="n">
+        <v>159</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45145</v>
+        <v>45130</v>
       </c>
       <c r="B34" t="n">
-        <v>145</v>
-      </c>
-      <c r="C34" t="n">
+        <v>175</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45152</v>
+        <v>45137</v>
       </c>
       <c r="B35" t="n">
-        <v>147</v>
-      </c>
-      <c r="C35" t="n">
+        <v>148</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45159</v>
+        <v>45144</v>
       </c>
       <c r="B36" t="n">
-        <v>157</v>
-      </c>
-      <c r="C36" t="n">
+        <v>153</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45166</v>
+        <v>45151</v>
       </c>
       <c r="B37" t="n">
-        <v>140</v>
-      </c>
-      <c r="C37" t="n">
+        <v>145</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45173</v>
+        <v>45158</v>
       </c>
       <c r="B38" t="n">
-        <v>123</v>
-      </c>
-      <c r="C38" t="n">
+        <v>147</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45180</v>
+        <v>45165</v>
       </c>
       <c r="B39" t="n">
-        <v>118</v>
-      </c>
-      <c r="C39" t="n">
+        <v>157</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45187</v>
+        <v>45172</v>
       </c>
       <c r="B40" t="n">
-        <v>121</v>
-      </c>
-      <c r="C40" t="n">
+        <v>140</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45194</v>
+        <v>45179</v>
       </c>
       <c r="B41" t="n">
-        <v>324</v>
-      </c>
-      <c r="C41" t="n">
+        <v>123</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45201</v>
+        <v>45186</v>
       </c>
       <c r="B42" t="n">
-        <v>122</v>
-      </c>
-      <c r="C42" t="n">
+        <v>118</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45208</v>
+        <v>45193</v>
       </c>
       <c r="B43" t="n">
-        <v>92</v>
-      </c>
-      <c r="C43" t="n">
+        <v>121</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45215</v>
+        <v>45200</v>
       </c>
       <c r="B44" t="n">
-        <v>104</v>
-      </c>
-      <c r="C44" t="n">
+        <v>324</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45222</v>
+        <v>45207</v>
       </c>
       <c r="B45" t="n">
-        <v>102</v>
-      </c>
-      <c r="C45" t="n">
+        <v>122</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45229</v>
+        <v>45214</v>
       </c>
       <c r="B46" t="n">
-        <v>184</v>
-      </c>
-      <c r="C46" t="n">
+        <v>92</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45236</v>
+        <v>45221</v>
       </c>
       <c r="B47" t="n">
-        <v>776</v>
-      </c>
-      <c r="C47" t="n">
+        <v>104</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45243</v>
+        <v>45228</v>
       </c>
       <c r="B48" t="n">
-        <v>965</v>
-      </c>
-      <c r="C48" t="n">
+        <v>102</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45250</v>
+        <v>45235</v>
       </c>
       <c r="B49" t="n">
-        <v>198</v>
-      </c>
-      <c r="C49" t="n">
+        <v>184</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45257</v>
+        <v>45242</v>
       </c>
       <c r="B50" t="n">
-        <v>197</v>
-      </c>
-      <c r="C50" t="n">
+        <v>776</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45264</v>
+        <v>45249</v>
       </c>
       <c r="B51" t="n">
-        <v>273</v>
-      </c>
-      <c r="C51" t="n">
+        <v>965</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45271</v>
+        <v>45256</v>
       </c>
       <c r="B52" t="n">
-        <v>320</v>
-      </c>
-      <c r="C52" t="n">
+        <v>198</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45285</v>
+        <v>45263</v>
       </c>
       <c r="B53" t="n">
-        <v>115</v>
-      </c>
-      <c r="C53" t="n">
+        <v>197</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45292</v>
+        <v>45270</v>
       </c>
       <c r="B54" t="n">
-        <v>101</v>
-      </c>
-      <c r="C54" t="n">
-        <v>816</v>
+        <v>273</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45299</v>
+        <v>45277</v>
       </c>
       <c r="B55" t="n">
-        <v>184</v>
-      </c>
-      <c r="C55" t="n">
-        <v>24</v>
+        <v>320</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45306</v>
+        <v>45291</v>
       </c>
       <c r="B56" t="n">
-        <v>255</v>
-      </c>
-      <c r="C56" t="n">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45313</v>
+        <v>45298</v>
       </c>
       <c r="B57" t="n">
-        <v>225</v>
-      </c>
-      <c r="C57" t="n">
+        <v>101</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45320</v>
+        <v>45305</v>
       </c>
       <c r="B58" t="n">
-        <v>239</v>
-      </c>
-      <c r="C58" t="n">
+        <v>184</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45327</v>
+        <v>45312</v>
       </c>
       <c r="B59" t="n">
-        <v>265</v>
-      </c>
-      <c r="C59" t="n">
-        <v>528</v>
+        <v>255</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45334</v>
+        <v>45319</v>
       </c>
       <c r="B60" t="n">
-        <v>236</v>
-      </c>
-      <c r="C60" t="n">
-        <v>24</v>
+        <v>225</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45341</v>
+        <v>45326</v>
       </c>
       <c r="B61" t="n">
-        <v>217</v>
-      </c>
-      <c r="C61" t="n">
-        <v>888</v>
+        <v>239</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45348</v>
+        <v>45333</v>
       </c>
       <c r="B62" t="n">
-        <v>264</v>
-      </c>
-      <c r="C62" t="n">
-        <v>600</v>
+        <v>265</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45355</v>
+        <v>45340</v>
       </c>
       <c r="B63" t="n">
-        <v>218</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2976</v>
+        <v>236</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45362</v>
+        <v>45347</v>
       </c>
       <c r="B64" t="n">
-        <v>241</v>
-      </c>
-      <c r="C64" t="n">
+        <v>217</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45369</v>
+        <v>45354</v>
       </c>
       <c r="B65" t="n">
-        <v>209</v>
-      </c>
-      <c r="C65" t="n">
+        <v>264</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45376</v>
+        <v>45361</v>
       </c>
       <c r="B66" t="n">
-        <v>209</v>
-      </c>
-      <c r="C66" t="n">
+        <v>218</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45383</v>
+        <v>45368</v>
       </c>
       <c r="B67" t="n">
-        <v>168</v>
-      </c>
-      <c r="C67" t="n">
+        <v>241</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45390</v>
+        <v>45375</v>
       </c>
       <c r="B68" t="n">
-        <v>165</v>
-      </c>
-      <c r="C68" t="n">
-        <v>16</v>
+        <v>209</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45397</v>
+        <v>45382</v>
       </c>
       <c r="B69" t="n">
-        <v>225</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1392</v>
+        <v>209</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45404</v>
+        <v>45389</v>
       </c>
       <c r="B70" t="n">
-        <v>176</v>
-      </c>
-      <c r="C70" t="n">
+        <v>168</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45411</v>
+        <v>45396</v>
       </c>
       <c r="B71" t="n">
-        <v>138</v>
-      </c>
-      <c r="C71" t="n">
+        <v>165</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45418</v>
+        <v>45403</v>
       </c>
       <c r="B72" t="n">
-        <v>137</v>
-      </c>
-      <c r="C72" t="n">
-        <v>432</v>
+        <v>225</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45425</v>
+        <v>45410</v>
       </c>
       <c r="B73" t="n">
-        <v>141</v>
-      </c>
-      <c r="C73" t="n">
-        <v>320</v>
+        <v>176</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45432</v>
+        <v>45417</v>
       </c>
       <c r="B74" t="n">
-        <v>143</v>
-      </c>
-      <c r="C74" t="n">
+        <v>138</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45439</v>
+        <v>45424</v>
       </c>
       <c r="B75" t="n">
-        <v>147</v>
-      </c>
-      <c r="C75" t="n">
+        <v>137</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45446</v>
+        <v>45431</v>
       </c>
       <c r="B76" t="n">
-        <v>116</v>
-      </c>
-      <c r="C76" t="n">
+        <v>141</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45453</v>
+        <v>45438</v>
       </c>
       <c r="B77" t="n">
-        <v>118</v>
-      </c>
-      <c r="C77" t="n">
-        <v>464</v>
+        <v>143</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45460</v>
+        <v>45445</v>
       </c>
       <c r="B78" t="n">
-        <v>169</v>
-      </c>
-      <c r="C78" t="n">
-        <v>80</v>
+        <v>147</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45467</v>
+        <v>45452</v>
       </c>
       <c r="B79" t="n">
-        <v>128</v>
-      </c>
-      <c r="C79" t="n">
-        <v>176</v>
+        <v>116</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45474</v>
+        <v>45459</v>
       </c>
       <c r="B80" t="n">
-        <v>144</v>
-      </c>
-      <c r="C80" t="n">
+        <v>118</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45481</v>
+        <v>45466</v>
       </c>
       <c r="B81" t="n">
-        <v>174</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1200</v>
+        <v>169</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45488</v>
+        <v>45473</v>
       </c>
       <c r="B82" t="n">
-        <v>53</v>
-      </c>
-      <c r="C82" t="n">
-        <v>912</v>
+        <v>128</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45495</v>
+        <v>45480</v>
       </c>
       <c r="B83" t="n">
-        <v>29</v>
-      </c>
-      <c r="C83" t="n">
-        <v>16</v>
+        <v>144</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45502</v>
+        <v>45487</v>
       </c>
       <c r="B84" t="n">
-        <v>167</v>
-      </c>
-      <c r="C84" t="n">
+        <v>174</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45509</v>
+        <v>45494</v>
       </c>
       <c r="B85" t="n">
-        <v>127</v>
-      </c>
-      <c r="C85" t="n">
+        <v>53</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45516</v>
+        <v>45501</v>
       </c>
       <c r="B86" t="n">
-        <v>108</v>
-      </c>
-      <c r="C86" t="n">
-        <v>368</v>
+        <v>29</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45523</v>
+        <v>45508</v>
       </c>
       <c r="B87" t="n">
-        <v>616</v>
-      </c>
-      <c r="C87" t="n">
-        <v>16</v>
+        <v>167</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45530</v>
+        <v>45515</v>
       </c>
       <c r="B88" t="n">
-        <v>118</v>
-      </c>
-      <c r="C88" t="n">
+        <v>127</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45537</v>
+        <v>45522</v>
       </c>
       <c r="B89" t="n">
-        <v>129</v>
-      </c>
-      <c r="C89" t="n">
+        <v>108</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45544</v>
+        <v>45529</v>
       </c>
       <c r="B90" t="n">
-        <v>107</v>
-      </c>
-      <c r="C90" t="n">
-        <v>304</v>
+        <v>616</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45551</v>
+        <v>45536</v>
       </c>
       <c r="B91" t="n">
-        <v>85</v>
-      </c>
-      <c r="C91" t="n">
-        <v>352</v>
+        <v>118</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45558</v>
+        <v>45543</v>
       </c>
       <c r="B92" t="n">
-        <v>88</v>
-      </c>
-      <c r="C92" t="n">
-        <v>976</v>
+        <v>129</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45565</v>
+        <v>45550</v>
       </c>
       <c r="B93" t="n">
-        <v>123</v>
-      </c>
-      <c r="C93" t="n">
+        <v>107</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45572</v>
+        <v>45557</v>
       </c>
       <c r="B94" t="n">
-        <v>135</v>
-      </c>
-      <c r="C94" t="n">
-        <v>512</v>
+        <v>85</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45579</v>
+        <v>45564</v>
       </c>
       <c r="B95" t="n">
-        <v>115</v>
-      </c>
-      <c r="C95" t="n">
-        <v>912</v>
+        <v>88</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45586</v>
+        <v>45571</v>
       </c>
       <c r="B96" t="n">
-        <v>122</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1296</v>
+        <v>123</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45593</v>
+        <v>45578</v>
       </c>
       <c r="B97" t="n">
-        <v>109</v>
-      </c>
-      <c r="C97" t="n">
+        <v>135</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45600</v>
+        <v>45585</v>
       </c>
       <c r="B98" t="n">
-        <v>104</v>
-      </c>
-      <c r="C98" t="n">
+        <v>115</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45607</v>
+        <v>45592</v>
       </c>
       <c r="B99" t="n">
-        <v>162</v>
-      </c>
-      <c r="C99" t="n">
+        <v>122</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45614</v>
+        <v>45599</v>
       </c>
       <c r="B100" t="n">
-        <v>376</v>
-      </c>
-      <c r="C100" t="n">
+        <v>109</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45621</v>
+        <v>45606</v>
       </c>
       <c r="B101" t="n">
-        <v>114</v>
-      </c>
-      <c r="C101" t="n">
+        <v>104</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45628</v>
+        <v>45613</v>
       </c>
       <c r="B102" t="n">
-        <v>235</v>
-      </c>
-      <c r="C102" t="n">
+        <v>162</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45635</v>
+        <v>45620</v>
       </c>
       <c r="B103" t="n">
-        <v>171</v>
-      </c>
-      <c r="C103" t="n">
+        <v>376</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45642</v>
+        <v>45627</v>
       </c>
       <c r="B104" t="n">
-        <v>159</v>
-      </c>
-      <c r="C104" t="n">
+        <v>114</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
+        <v>45634</v>
+      </c>
+      <c r="B105" t="n">
+        <v>235</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="B106" t="n">
+        <v>171</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B107" t="n">
+        <v>159</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B108" t="n">
+        <v>194</v>
+      </c>
+      <c r="C108" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B105" t="n">
-        <v>194</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0</v>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="n">
+        <v>816</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-97.05882352941177</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B4" t="n">
+        <v>120</v>
+      </c>
+      <c r="C4" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B5" t="n">
+        <v>528</v>
+      </c>
+      <c r="C5" t="n">
+        <v>340.0000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B6" t="n">
+        <v>24</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-95.45454545454545</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B7" t="n">
+        <v>888</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B8" t="n">
+        <v>600</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-32.43243243243244</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2976</v>
+      </c>
+      <c r="C9" t="n">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-99.46236559139786</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1392</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B12" t="n">
+        <v>432</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-68.96551724137932</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B13" t="n">
+        <v>320</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-25.92592592592593</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B14" t="n">
+        <v>464</v>
+      </c>
+      <c r="C14" t="n">
+        <v>44.99999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B15" t="n">
+        <v>80</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-82.75862068965517</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B16" t="n">
+        <v>176</v>
+      </c>
+      <c r="C16" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C17" t="n">
+        <v>581.8181818181819</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B18" t="n">
+        <v>912</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-98.24561403508771</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B20" t="n">
+        <v>368</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B21" t="n">
+        <v>16</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-95.65217391304348</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B22" t="n">
+        <v>304</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B23" t="n">
+        <v>352</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15.78947368421053</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B24" t="n">
+        <v>976</v>
+      </c>
+      <c r="C24" t="n">
+        <v>177.2727272727273</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B25" t="n">
+        <v>512</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-47.54098360655738</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B26" t="n">
+        <v>912</v>
+      </c>
+      <c r="C26" t="n">
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1296</v>
+      </c>
+      <c r="C27" t="n">
+        <v>42.10526315789473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>15720</v>
+      </c>
+      <c r="B2" t="n">
+        <v>604.6153846153846</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2976</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>647.8523076923077</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B08KGVH7YC_sales_po_comparison.xlsx
+++ b/po forecast comparison/B08KGVH7YC_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1510 +453,1151 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44920</v>
+        <v>44920.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44914</v>
-      </c>
-      <c r="D2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44920</v>
+        <v>44927.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>44914</v>
-      </c>
-      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44927</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44934</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44928</v>
-      </c>
-      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44941</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44948</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44955</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44955</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44962</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="D10" t="n">
+        <v>157</v>
+      </c>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44969</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44963</v>
-      </c>
-      <c r="D11" t="n">
+        <v>144</v>
+      </c>
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44983</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="C12" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44983</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C13" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44990</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>144</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="C14" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44997</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>81</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>44991</v>
-      </c>
-      <c r="D15" t="n">
+        <v>139</v>
+      </c>
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45004</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>42</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>44998</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="C16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45011</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B17" t="n">
+        <v>102</v>
+      </c>
+      <c r="C17" t="n">
         <v>136</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>45005</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45018</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>139</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>45012</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="C18" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45025</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>114</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>45019</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="C19" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45032</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>102</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="C20" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45039</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>148</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45046</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>132</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45053</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>61</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="D23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45060</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>76</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="D24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45067</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>81</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45074</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="D26" t="n">
+        <v>22</v>
+      </c>
+      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45081</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45088</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>45082</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45095</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>45089</v>
-      </c>
-      <c r="D29" t="n">
+        <v>227</v>
+      </c>
+      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45102</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>45096</v>
-      </c>
-      <c r="D30" t="n">
+        <v>159</v>
+      </c>
+      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45109</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>79</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>45103</v>
-      </c>
-      <c r="D31" t="n">
+        <v>175</v>
+      </c>
+      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45116</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>227</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>45110</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="C32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45123</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>159</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>45117</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="C33" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45130</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>175</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>45124</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="C34" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45137</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>148</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>45131</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+        <v>147</v>
+      </c>
+      <c r="C35" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45144</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>153</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="C36" t="n">
+        <v>904</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45151</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>145</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="D37" t="n">
+        <v>140</v>
+      </c>
+      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45158</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>147</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>45152</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="C38" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45165</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>157</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="C39" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45172</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>140</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>45166</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="C40" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45179</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>123</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>45173</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+        <v>324</v>
+      </c>
+      <c r="C41" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45186</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>118</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="C42" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45193</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>121</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="C43" t="n">
+        <v>736</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45200</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>324</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C44" t="n">
+        <v>696</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45207</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>122</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45214</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>92</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D46" t="n">
+        <v>184</v>
+      </c>
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45221</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>104</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+        <v>776</v>
+      </c>
+      <c r="C47" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45228</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>102</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+        <v>965</v>
+      </c>
+      <c r="C48" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45235</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>184</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
+        <v>198</v>
+      </c>
+      <c r="C49" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45242</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>776</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1480</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45249</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>965</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
+        <v>273</v>
+      </c>
+      <c r="C51" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45256</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>198</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D52" t="n">
+        <v>320</v>
+      </c>
+      <c r="C52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45263</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>197</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D53" t="n">
+        <v>115</v>
+      </c>
+      <c r="C53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45270</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>273</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="C54" t="n">
+        <v>816</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45277</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>320</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="C55" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45291</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>115</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="C56" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45298</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>101</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D57" t="n">
+        <v>225</v>
+      </c>
+      <c r="C57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45305</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>184</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D58" t="n">
+        <v>239</v>
+      </c>
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45312</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>255</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
+        <v>265</v>
+      </c>
+      <c r="C59" t="n">
+        <v>528</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45319</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>225</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="C60" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45326</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>239</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="C61" t="n">
+        <v>888</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45333</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>265</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
+        <v>264</v>
+      </c>
+      <c r="C62" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45340</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>236</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2976</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45347</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>217</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D64" t="n">
+        <v>241</v>
+      </c>
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45354</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>264</v>
-      </c>
-      <c r="C65" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D65" t="n">
+        <v>209</v>
+      </c>
+      <c r="C65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45361</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>218</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D66" t="n">
+        <v>209</v>
+      </c>
+      <c r="C66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45368</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>241</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D67" t="n">
+        <v>168</v>
+      </c>
+      <c r="C67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45375</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>209</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="C68" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45382</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>209</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1392</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45389</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>168</v>
-      </c>
-      <c r="C70" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D70" t="n">
+        <v>176</v>
+      </c>
+      <c r="C70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45396</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>165</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D71" t="n">
+        <v>138</v>
+      </c>
+      <c r="C71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45403</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>225</v>
-      </c>
-      <c r="C72" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="C72" t="n">
+        <v>432</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45410</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>176</v>
-      </c>
-      <c r="C73" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="C73" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45417</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>138</v>
-      </c>
-      <c r="C74" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D74" t="n">
+        <v>143</v>
+      </c>
+      <c r="C74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45424</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>137</v>
-      </c>
-      <c r="C75" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D75" t="n">
+        <v>147</v>
+      </c>
+      <c r="C75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45431</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>141</v>
-      </c>
-      <c r="C76" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D76" t="n">
+        <v>116</v>
+      </c>
+      <c r="C76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45438</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>143</v>
-      </c>
-      <c r="C77" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="C77" t="n">
+        <v>464</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45445</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>147</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="C78" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45452</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B79" t="n">
-        <v>116</v>
-      </c>
-      <c r="C79" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="C79" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45459</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B80" t="n">
-        <v>118</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D80" t="n">
+        <v>144</v>
+      </c>
+      <c r="C80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45466</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B81" t="n">
-        <v>169</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45473</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>128</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="C82" t="n">
+        <v>912</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45480</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>144</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C83" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45487</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>174</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D84" t="n">
+        <v>167</v>
+      </c>
+      <c r="C84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45494</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B85" t="n">
-        <v>53</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D85" t="n">
+        <v>127</v>
+      </c>
+      <c r="C85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45501</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B86" t="n">
-        <v>29</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="C86" t="n">
+        <v>368</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45508</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B87" t="n">
-        <v>167</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
+        <v>616</v>
+      </c>
+      <c r="C87" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45515</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B88" t="n">
-        <v>127</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D88" t="n">
+        <v>118</v>
+      </c>
+      <c r="C88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45522</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B89" t="n">
-        <v>108</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D89" t="n">
+        <v>129</v>
+      </c>
+      <c r="C89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45529</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B90" t="n">
-        <v>616</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="C90" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45536</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B91" t="n">
-        <v>118</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="C91" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45543</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B92" t="n">
-        <v>129</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="C92" t="n">
+        <v>976</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45550</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B93" t="n">
-        <v>107</v>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D93" t="n">
+        <v>123</v>
+      </c>
+      <c r="C93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45557</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>85</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="C94" t="n">
+        <v>512</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45564</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B95" t="n">
-        <v>88</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="C95" t="n">
+        <v>912</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45571</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B96" t="n">
-        <v>123</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1296</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45578</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B97" t="n">
-        <v>135</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D97" t="n">
+        <v>109</v>
+      </c>
+      <c r="C97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45585</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B98" t="n">
-        <v>115</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D98" t="n">
+        <v>104</v>
+      </c>
+      <c r="C98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45592</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>122</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D99" t="n">
+        <v>162</v>
+      </c>
+      <c r="C99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45599</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B100" t="n">
-        <v>109</v>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D100" t="n">
+        <v>376</v>
+      </c>
+      <c r="C100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45606</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B101" t="n">
-        <v>104</v>
-      </c>
-      <c r="C101" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D101" t="n">
+        <v>114</v>
+      </c>
+      <c r="C101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45613</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B102" t="n">
-        <v>162</v>
-      </c>
-      <c r="C102" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D102" t="n">
+        <v>235</v>
+      </c>
+      <c r="C102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45620</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B103" t="n">
-        <v>376</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D103" t="n">
+        <v>171</v>
+      </c>
+      <c r="C103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45627</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B104" t="n">
-        <v>114</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D104" t="n">
+        <v>159</v>
+      </c>
+      <c r="C104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45634</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B105" t="n">
-        <v>235</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>45641</v>
-      </c>
-      <c r="B106" t="n">
-        <v>171</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>45648</v>
-      </c>
-      <c r="B107" t="n">
-        <v>159</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B108" t="n">
         <v>194</v>
       </c>
-      <c r="C108" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D108" t="n">
+      <c r="C105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,7 +1612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1998,10 +1639,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>816</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2009,276 +1650,639 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C3" t="n">
-        <v>-97.05882352941177</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>528</v>
       </c>
       <c r="C4" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>528</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>340.0000000000001</v>
+        <v>-92.42424242424242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="C6" t="n">
-        <v>-95.45454545454545</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>888</v>
+        <v>152</v>
       </c>
       <c r="C7" t="n">
-        <v>3600</v>
+        <v>-45.71428571428572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>600</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
-        <v>-32.43243243243244</v>
+        <v>-63.1578947368421</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2976</v>
+        <v>136</v>
       </c>
       <c r="C9" t="n">
-        <v>396</v>
+        <v>142.8571428571428</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45390</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="C10" t="n">
-        <v>-99.46236559139786</v>
+        <v>64.70588235294117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45397</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1392</v>
+        <v>48</v>
       </c>
       <c r="C11" t="n">
-        <v>8600</v>
+        <v>-78.57142857142857</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45418</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>432</v>
+        <v>352</v>
       </c>
       <c r="C12" t="n">
-        <v>-68.96551724137932</v>
+        <v>633.3333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45425</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>-25.92592592592593</v>
+        <v>-97.72727272727273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45453</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>464</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>44.99999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45460</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>-82.75862068965517</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45467</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>176</v>
+        <v>1288</v>
       </c>
       <c r="C16" t="n">
-        <v>120</v>
+        <v>5266.666666666666</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45481</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>1200</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>581.8181818181819</v>
+        <v>-99.37888198757764</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45488</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>912</v>
+        <v>208</v>
       </c>
       <c r="C18" t="n">
-        <v>-24</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45495</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="C19" t="n">
-        <v>-98.24561403508771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45516</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>368</v>
+        <v>216</v>
       </c>
       <c r="C20" t="n">
-        <v>2200</v>
+        <v>3.846153846153855</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45523</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>904</v>
       </c>
       <c r="C21" t="n">
-        <v>-95.65217391304348</v>
+        <v>318.5185185185185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45544</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>304</v>
+        <v>88</v>
       </c>
       <c r="C22" t="n">
-        <v>1800</v>
+        <v>-90.26548672566371</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45551</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>352</v>
+        <v>224</v>
       </c>
       <c r="C23" t="n">
-        <v>15.78947368421053</v>
+        <v>154.5454545454545</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45558</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>976</v>
+        <v>240</v>
       </c>
       <c r="C24" t="n">
-        <v>177.2727272727273</v>
+        <v>7.14285714285714</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45572</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>512</v>
+        <v>400</v>
       </c>
       <c r="C25" t="n">
-        <v>-47.54098360655738</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45579</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>912</v>
+        <v>72</v>
       </c>
       <c r="C26" t="n">
-        <v>78.125</v>
+        <v>-82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45586</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B27" t="n">
+        <v>736</v>
+      </c>
+      <c r="C27" t="n">
+        <v>922.2222222222222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>696</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-5.434782608695654</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-97.70114942528735</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>48</v>
+      </c>
+      <c r="C30" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>112</v>
+      </c>
+      <c r="C31" t="n">
+        <v>133.3333333333333</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>72</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-35.71428571428571</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1480</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1955.555555555556</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>600</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-59.45945945945945</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>816</v>
+      </c>
+      <c r="C35" t="n">
+        <v>36.00000000000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>24</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-97.05882352941177</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>120</v>
+      </c>
+      <c r="C37" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>528</v>
+      </c>
+      <c r="C38" t="n">
+        <v>340.0000000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-95.45454545454545</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>888</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>600</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-32.43243243243244</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2976</v>
+      </c>
+      <c r="C42" t="n">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>16</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-99.46236559139786</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1392</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>432</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-68.96551724137932</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>320</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-25.92592592592593</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>464</v>
+      </c>
+      <c r="C47" t="n">
+        <v>44.99999999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>80</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-82.75862068965517</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>176</v>
+      </c>
+      <c r="C49" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C50" t="n">
+        <v>581.8181818181819</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>912</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>16</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-98.24561403508771</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>368</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>16</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-95.65217391304348</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>304</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>352</v>
+      </c>
+      <c r="C56" t="n">
+        <v>15.78947368421053</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>976</v>
+      </c>
+      <c r="C57" t="n">
+        <v>177.2727272727273</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>512</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-47.54098360655738</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>912</v>
+      </c>
+      <c r="C59" t="n">
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B60" t="n">
         <v>1296</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C60" t="n">
         <v>42.10526315789473</v>
       </c>
     </row>
@@ -2325,16 +2329,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15720</v>
+        <v>25408</v>
       </c>
       <c r="B2" t="n">
-        <v>604.6153846153846</v>
+        <v>430.6440677966102</v>
       </c>
       <c r="C2" t="n">
         <v>2976</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +2369,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>647.8523076923077</v>
+        <v>731.1700759789596</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B08KGVH7YC_sales_po_comparison.xlsx
+++ b/po forecast comparison/B08KGVH7YC_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1283,6 +1283,14 @@
       </c>
       <c r="B105" t="n">
         <v>194</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B106" t="n">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -38896,7 +38904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C423"/>
+  <dimension ref="A1:C424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41140,7 +41148,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="204">
@@ -41206,7 +41214,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210">
@@ -41228,7 +41236,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212">
@@ -41261,7 +41269,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215">
@@ -41272,7 +41280,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216">
@@ -41283,7 +41291,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217">
@@ -41426,7 +41434,7 @@
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230">
@@ -41459,7 +41467,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row r="233">
@@ -41470,7 +41478,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>64</v>
+        <v>112</v>
       </c>
     </row>
     <row r="234">
@@ -41481,7 +41489,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="235">
@@ -41492,7 +41500,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236">
@@ -41503,7 +41511,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="237">
@@ -41525,7 +41533,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="239">
@@ -41547,7 +41555,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="241">
@@ -41558,7 +41566,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>104</v>
+        <v>24</v>
       </c>
     </row>
     <row r="242">
@@ -41591,7 +41599,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="245">
@@ -41613,7 +41621,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="247">
@@ -41624,7 +41632,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>104</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248">
@@ -41789,7 +41797,7 @@
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="263">
@@ -41800,7 +41808,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264">
@@ -41811,7 +41819,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="265">
@@ -41866,7 +41874,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>88</v>
+        <v>376</v>
       </c>
     </row>
     <row r="270">
@@ -41888,7 +41896,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>376</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272">
@@ -41899,7 +41907,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>136</v>
+        <v>240</v>
       </c>
     </row>
     <row r="273">
@@ -41910,7 +41918,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274">
@@ -41921,7 +41929,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275">
@@ -41932,7 +41940,7 @@
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>240</v>
+        <v>104</v>
       </c>
     </row>
     <row r="276">
@@ -41943,7 +41951,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="277">
@@ -42042,7 +42050,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286">
@@ -42053,7 +42061,7 @@
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287">
@@ -42064,7 +42072,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="288">
@@ -42075,7 +42083,7 @@
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289">
@@ -42086,7 +42094,7 @@
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290">
@@ -42097,7 +42105,7 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291">
@@ -42108,7 +42116,7 @@
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="292">
@@ -42119,7 +42127,7 @@
         <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>48</v>
+        <v>264</v>
       </c>
     </row>
     <row r="293">
@@ -42130,7 +42138,7 @@
         <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>264</v>
+        <v>40</v>
       </c>
     </row>
     <row r="294">
@@ -42141,7 +42149,7 @@
         <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="295">
@@ -42152,7 +42160,7 @@
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>104</v>
+        <v>64</v>
       </c>
     </row>
     <row r="296">
@@ -42163,7 +42171,7 @@
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="297">
@@ -42174,7 +42182,7 @@
         <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="298">
@@ -42196,7 +42204,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>104</v>
+        <v>40</v>
       </c>
     </row>
     <row r="300">
@@ -42218,7 +42226,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="302">
@@ -42229,7 +42237,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="303">
@@ -42240,7 +42248,7 @@
         <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304">
@@ -42251,7 +42259,7 @@
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="305">
@@ -42262,7 +42270,7 @@
         <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="306">
@@ -42273,7 +42281,7 @@
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="307">
@@ -42372,7 +42380,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="316">
@@ -42383,7 +42391,7 @@
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="317">
@@ -42394,7 +42402,7 @@
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="318">
@@ -42405,7 +42413,7 @@
         <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="319">
@@ -42427,7 +42435,7 @@
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="321">
@@ -43296,7 +43304,7 @@
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>64</v>
+        <v>416</v>
       </c>
     </row>
     <row r="400">
@@ -43318,7 +43326,7 @@
         <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>416</v>
+        <v>64</v>
       </c>
     </row>
     <row r="402">
@@ -43395,7 +43403,7 @@
         <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>424</v>
+        <v>32</v>
       </c>
     </row>
     <row r="409">
@@ -43417,7 +43425,7 @@
         <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>32</v>
+        <v>424</v>
       </c>
     </row>
     <row r="411">
@@ -43560,6 +43568,17 @@
         <v>194</v>
       </c>
       <c r="C423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B424" t="n">
+        <v>182</v>
+      </c>
+      <c r="C424" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B08KGVH7YC_sales_po_comparison.xlsx
+++ b/po forecast comparison/B08KGVH7YC_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1291,6 +1291,14 @@
       </c>
       <c r="B106" t="n">
         <v>182</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B107" t="n">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -38904,7 +38912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C424"/>
+  <dimension ref="A1:C425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42567,7 +42575,7 @@
         <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="333">
@@ -42578,7 +42586,7 @@
         <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334">
@@ -42622,7 +42630,7 @@
         <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="338">
@@ -42655,7 +42663,7 @@
         <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="341">
@@ -42666,7 +42674,7 @@
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="342">
@@ -42677,7 +42685,7 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="343">
@@ -42710,7 +42718,7 @@
         <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="346">
@@ -42721,7 +42729,7 @@
         <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="347">
@@ -42743,7 +42751,7 @@
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>224</v>
+        <v>96</v>
       </c>
     </row>
     <row r="349">
@@ -42754,7 +42762,7 @@
         <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="350">
@@ -42765,7 +42773,7 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>8</v>
+        <v>224</v>
       </c>
     </row>
     <row r="351">
@@ -42776,7 +42784,7 @@
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>224</v>
+        <v>112</v>
       </c>
     </row>
     <row r="352">
@@ -42787,7 +42795,7 @@
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>112</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353">
@@ -42798,7 +42806,7 @@
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>120</v>
+        <v>224</v>
       </c>
     </row>
     <row r="354">
@@ -42809,7 +42817,7 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="355">
@@ -42820,7 +42828,7 @@
         <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="356">
@@ -42831,7 +42839,7 @@
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357">
@@ -42853,7 +42861,7 @@
         <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="359">
@@ -42864,7 +42872,7 @@
         <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="360">
@@ -42875,7 +42883,7 @@
         <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>120</v>
+        <v>256</v>
       </c>
     </row>
     <row r="361">
@@ -42886,7 +42894,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>256</v>
+        <v>120</v>
       </c>
     </row>
     <row r="362">
@@ -42897,7 +42905,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>256</v>
+        <v>120</v>
       </c>
     </row>
     <row r="363">
@@ -42908,7 +42916,7 @@
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="364">
@@ -42930,7 +42938,7 @@
         <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>72</v>
+        <v>256</v>
       </c>
     </row>
     <row r="366">
@@ -43007,7 +43015,7 @@
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373">
@@ -43018,7 +43026,7 @@
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>64</v>
+        <v>104</v>
       </c>
     </row>
     <row r="374">
@@ -43040,7 +43048,7 @@
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="376">
@@ -43051,7 +43059,7 @@
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>64</v>
+        <v>104</v>
       </c>
     </row>
     <row r="377">
@@ -43073,7 +43081,7 @@
         <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="379">
@@ -43084,7 +43092,7 @@
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="380">
@@ -43282,7 +43290,7 @@
         <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>8</v>
+        <v>416</v>
       </c>
     </row>
     <row r="398">
@@ -43293,7 +43301,7 @@
         <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>416</v>
+        <v>8</v>
       </c>
     </row>
     <row r="399">
@@ -43304,7 +43312,7 @@
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>416</v>
+        <v>64</v>
       </c>
     </row>
     <row r="400">
@@ -43326,7 +43334,7 @@
         <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>64</v>
+        <v>416</v>
       </c>
     </row>
     <row r="402">
@@ -43579,6 +43587,17 @@
         <v>182</v>
       </c>
       <c r="C424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B425" t="n">
+        <v>39</v>
+      </c>
+      <c r="C425" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B08KGVH7YC_sales_po_comparison.xlsx
+++ b/po forecast comparison/B08KGVH7YC_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1299,6 +1299,14 @@
       </c>
       <c r="B107" t="n">
         <v>39</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-8</v>
       </c>
     </row>
   </sheetData>
@@ -38912,7 +38920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C425"/>
+  <dimension ref="A1:C426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41200,7 +41208,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208">
@@ -41222,7 +41230,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210">
@@ -41266,7 +41274,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214">
@@ -41277,7 +41285,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215">
@@ -41288,7 +41296,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216">
@@ -41299,7 +41307,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217">
@@ -41365,7 +41373,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>112</v>
+        <v>64</v>
       </c>
     </row>
     <row r="223">
@@ -41376,7 +41384,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="224">
@@ -41387,7 +41395,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225">
@@ -41398,7 +41406,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226">
@@ -41420,7 +41428,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="228">
@@ -41431,7 +41439,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="229">
@@ -41442,7 +41450,7 @@
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="230">
@@ -41453,7 +41461,7 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="231">
@@ -41475,7 +41483,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
     </row>
     <row r="233">
@@ -41486,7 +41494,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>112</v>
+        <v>64</v>
       </c>
     </row>
     <row r="234">
@@ -41497,7 +41505,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="235">
@@ -41508,7 +41516,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="236">
@@ -41519,7 +41527,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237">
@@ -41541,7 +41549,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="239">
@@ -41563,7 +41571,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>104</v>
+        <v>48</v>
       </c>
     </row>
     <row r="241">
@@ -41585,7 +41593,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="243">
@@ -41596,7 +41604,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>104</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244">
@@ -41607,7 +41615,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245">
@@ -41629,7 +41637,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>104</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247">
@@ -41640,7 +41648,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
     <row r="248">
@@ -41662,7 +41670,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
     <row r="250">
@@ -41739,7 +41747,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="257">
@@ -41750,7 +41758,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="258">
@@ -41794,7 +41802,7 @@
         <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>376</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262">
@@ -41805,7 +41813,7 @@
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>40</v>
+        <v>104</v>
       </c>
     </row>
     <row r="263">
@@ -41816,7 +41824,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="264">
@@ -41827,7 +41835,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265">
@@ -41838,7 +41846,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>104</v>
+        <v>40</v>
       </c>
     </row>
     <row r="266">
@@ -41849,7 +41857,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="267">
@@ -41860,7 +41868,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>136</v>
+        <v>88</v>
       </c>
     </row>
     <row r="268">
@@ -41871,7 +41879,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>40</v>
+        <v>376</v>
       </c>
     </row>
     <row r="269">
@@ -41882,7 +41890,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>376</v>
+        <v>88</v>
       </c>
     </row>
     <row r="270">
@@ -41893,7 +41901,7 @@
         <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>240</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271">
@@ -41904,7 +41912,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="272">
@@ -41915,7 +41923,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>240</v>
+        <v>376</v>
       </c>
     </row>
     <row r="273">
@@ -41926,7 +41934,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="274">
@@ -41937,7 +41945,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="275">
@@ -41948,7 +41956,7 @@
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276">
@@ -41959,7 +41967,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>136</v>
+        <v>240</v>
       </c>
     </row>
     <row r="277">
@@ -42058,7 +42066,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286">
@@ -42069,7 +42077,7 @@
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="287">
@@ -42080,7 +42088,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288">
@@ -42091,7 +42099,7 @@
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="289">
@@ -42102,7 +42110,7 @@
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290">
@@ -42113,7 +42121,7 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="291">
@@ -42124,7 +42132,7 @@
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="292">
@@ -42135,7 +42143,7 @@
         <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>264</v>
+        <v>48</v>
       </c>
     </row>
     <row r="293">
@@ -42146,7 +42154,7 @@
         <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>40</v>
+        <v>264</v>
       </c>
     </row>
     <row r="294">
@@ -42157,7 +42165,7 @@
         <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="295">
@@ -42168,7 +42176,7 @@
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>64</v>
+        <v>104</v>
       </c>
     </row>
     <row r="296">
@@ -42179,7 +42187,7 @@
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="297">
@@ -42190,7 +42198,7 @@
         <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="298">
@@ -42212,7 +42220,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>40</v>
+        <v>104</v>
       </c>
     </row>
     <row r="300">
@@ -42234,7 +42242,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="302">
@@ -42245,7 +42253,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="303">
@@ -42256,7 +42264,7 @@
         <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="304">
@@ -42267,7 +42275,7 @@
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305">
@@ -42278,7 +42286,7 @@
         <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="306">
@@ -42289,7 +42297,7 @@
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="307">
@@ -42388,7 +42396,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="316">
@@ -42399,7 +42407,7 @@
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="317">
@@ -42410,7 +42418,7 @@
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="318">
@@ -42421,7 +42429,7 @@
         <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="319">
@@ -42443,7 +42451,7 @@
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="321">
@@ -42784,7 +42792,7 @@
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="352">
@@ -42817,7 +42825,7 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="355">
@@ -43598,6 +43606,17 @@
         <v>39</v>
       </c>
       <c r="C425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B426" t="n">
+        <v>-8</v>
+      </c>
+      <c r="C426" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B08KGVH7YC_sales_po_comparison.xlsx
+++ b/po forecast comparison/B08KGVH7YC_sales_po_comparison.xlsx
@@ -1306,7 +1306,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B108" t="n">
-        <v>-8</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -43614,7 +43614,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B426" t="n">
-        <v>-8</v>
+        <v>22</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
